--- a/data/income_statement/3digits/total/101_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/101_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>101-Processing and preserving of meat and production of meat products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>101-Processing and preserving of meat and production of meat products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,113 +841,128 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>8255219.658340001</v>
+        <v>8255219.65834</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>10873412.61482</v>
+        <v>10873422.27782</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>13417773.47331</v>
+        <v>13417780.89026</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>15648585.45332</v>
+        <v>15654939.40648</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>17209775.70617</v>
+        <v>17218366.10527</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>20231868.17904</v>
+        <v>20247603.27799</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>21908506.87825</v>
+        <v>22088514.78468</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>25467018.80868</v>
+        <v>25468516.99387</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>32717767.80877</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>37556169.69131</v>
+        <v>37560702.53754</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>41522270.21437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>42175793.16836999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>46976435.818</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>7904183.70367</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>10433331.54455</v>
+        <v>10433341.20755</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>12548669.60883</v>
+        <v>12548677.02578</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>14434556.54511</v>
+        <v>14440415.74138</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>15787013.56527</v>
+        <v>15794031.20356</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>18362382.14372</v>
+        <v>18378110.09267</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>20250314.63772</v>
+        <v>20415809.80895</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>23790841.11163</v>
+        <v>23792337.92959</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>30007001.12488</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>33777101.21661</v>
+        <v>33781574.70043</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>37516047.21105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>37979855.56786</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>42198220.387</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>304487.37022</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>390120.8384</v>
+        <v>390120.8383999999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>794165.26475</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1116998.28958</v>
+        <v>1117174.53693</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1303940.5484</v>
+        <v>1304960.72866</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>1732493.68299</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1518671.85978</v>
+        <v>1532195.99825</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1449462.1259</v>
@@ -1058,13 +974,18 @@
         <v>3331418.9207</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3361138.44806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3542840.00716</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3881177.088</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>46548.58445</v>
@@ -1076,55 +997,60 @@
         <v>74938.59973</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>97030.61863</v>
+        <v>97349.12817</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>118821.5925</v>
+        <v>119374.17305</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>136992.35233</v>
+        <v>136999.50233</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>139520.38075</v>
+        <v>140508.97748</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>226715.57115</v>
+        <v>226716.93838</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>378674.7737200001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>447649.554</v>
+        <v>447708.91641</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>645084.5552599998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>653097.59335</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>897038.343</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>643426.6273299999</v>
+        <v>643426.62733</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>802381.4399199999</v>
+        <v>802381.43992</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>934343.7552199999</v>
+        <v>934343.7552200001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>786430.1582400001</v>
+        <v>786578.95173</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>944385.07174</v>
+        <v>944467.79886</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1212305.91635</v>
+        <v>1212531.60497</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1370183.55867</v>
+        <v>1381120.59224</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>1349608.55797</v>
@@ -1133,16 +1059,21 @@
         <v>1467984.02643</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1652480.70685</v>
+        <v>1652578.56846</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2130966.39378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2133724.35686</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2474749.722</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>150479.0084</v>
@@ -1154,16 +1085,16 @@
         <v>254871.17106</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>336396.7779700001</v>
+        <v>336540.63377</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>458980.32416</v>
+        <v>459062.95274</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>623234.25919</v>
+        <v>623235.4343000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>680045.0596599999</v>
+        <v>686792.33613</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>630969.71239</v>
@@ -1172,16 +1103,21 @@
         <v>691711.4481899999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>632994.3080000001</v>
+        <v>633092.1696099999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>665497.07408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>666737.7388500001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>753094.8370000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>438038.55885</v>
@@ -1202,46 +1138,51 @@
         <v>470839.43984</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>564552.1865599999</v>
+        <v>564984.90056</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>580940.2508100001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>610247.1094600002</v>
+        <v>610247.1094600001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>820050.3615200002</v>
+        <v>820050.36152</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1218425.68371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1219941.77481</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1462300.856</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>54909.06008</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>60130.7448</v>
+        <v>60130.74480000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>48292.04872</v>
+        <v>48292.04872000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>110575.29852</v>
+        <v>110580.23621</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>104834.63337</v>
+        <v>104834.73191</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>118232.21732</v>
+        <v>118456.73083</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>125586.31245</v>
+        <v>129343.35555</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>137698.59477</v>
@@ -1253,130 +1194,150 @@
         <v>199436.03733</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>247043.63599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>247044.8432</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>259354.029</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7611793.031010001</v>
+        <v>7611793.03101</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>10071031.1749</v>
+        <v>10071040.8379</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>12483429.71809</v>
+        <v>12483437.13504</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>14862155.29508</v>
+        <v>14868360.45475</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>16265390.63443</v>
+        <v>16273898.30641</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>19019562.26269</v>
+        <v>19035071.67302</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20538323.31958</v>
+        <v>20707394.19244</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>24117410.25071</v>
+        <v>24118908.4359</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>31249783.78234</v>
+        <v>31249783.78234001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>35903688.98446</v>
+        <v>35908123.96908</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>39391303.82059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>40042068.81151</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>44501686.096</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>6353377.964229999</v>
+        <v>6353377.96423</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8568114.232799999</v>
+        <v>8568181.96401</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>11123962.6797</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>13179432.0242</v>
+        <v>13184499.45303</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>14450905.4682</v>
+        <v>14458311.0009</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>16831236.83021</v>
+        <v>16848238.28481</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>18355571.2843</v>
+        <v>18507488.26885</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>20837674.52623</v>
+        <v>20839142.15429</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>26924121.71571</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>32632514.45604</v>
+        <v>32636656.15036</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>34448268.21055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>35048137.73205</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>40506692.229</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5863933.76564</v>
+        <v>5863933.765639999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>7793702.955870001</v>
+        <v>7793702.95587</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>9778755.33563</v>
+        <v>9778755.335630002</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>11768001.62333</v>
+        <v>11772517.82293</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>12908285.64724</v>
+        <v>12915300.42499</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>14875680.71392</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>16415037.72209</v>
+        <v>16541763.0153</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>17451067.27641</v>
+        <v>17452534.90447</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>21655941.44903</v>
+        <v>21655941.44902999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>27891801.30424</v>
+        <v>27893144.90116</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>30467434.49657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>30996314.95719</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>35185340.043</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>450515.35917</v>
@@ -1388,16 +1349,16 @@
         <v>1284793.32845</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1305712.15659</v>
+        <v>1306263.38582</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1427314.11162</v>
+        <v>1427704.86657</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1798891.74048</v>
+        <v>1807816.00638</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1779105.11886</v>
+        <v>1791526.86447</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>3211409.61928</v>
@@ -1406,37 +1367,42 @@
         <v>5020453.11604</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4335333.69246</v>
+        <v>4338064.537860001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3513275.96987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3584078.75704</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4865684.983</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>32293.43968</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>40810.72882</v>
+        <v>40878.46002999999</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>52290.22084</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>81404.21530000001</v>
+        <v>81404.2153</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>88095.96009000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>132978.96556</v>
+        <v>140702.34264</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>133113.40668</v>
+        <v>145780.55989</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>142883.68123</v>
@@ -1445,16 +1411,21 @@
         <v>185137.60419</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>245130.98397</v>
+        <v>245198.23597</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>304419.70841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>304605.98212</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>288998.7</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>6635.39974</v>
@@ -1472,16 +1443,16 @@
         <v>27209.74925</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>23685.41025</v>
+        <v>24039.22187</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>28315.03667</v>
+        <v>28417.82919</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>32313.94931</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>62589.54645000001</v>
+        <v>62589.54645</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>160248.47537</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>163138.0357</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>166668.503</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1258415.06678</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1502916.9421</v>
+        <v>1502858.87389</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1359467.03839</v>
+        <v>1359474.45534</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1682723.27088</v>
+        <v>1683861.00172</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1814485.16623</v>
+        <v>1815587.30551</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2188325.43248</v>
+        <v>2186833.38821</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2182752.03528</v>
+        <v>2199905.92359</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3279735.72448</v>
+        <v>3279766.281609999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4325662.06663</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3271174.52842</v>
+        <v>3271467.81872</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4943035.61004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4993931.07946</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3994993.867</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>677935.54998</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>871812.99581</v>
+        <v>871815.53499</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1047947.83726</v>
+        <v>1047979.54422</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1213785.92282</v>
+        <v>1214812.19236</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1397828.89803</v>
+        <v>1398845.43474</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1550867.31732</v>
+        <v>1552158.61852</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1616724.66003</v>
+        <v>1640674.02163</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1786058.87409</v>
+        <v>1786089.30341</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2027654.80452</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2360717.40726</v>
+        <v>2362696.85677</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2692421.53064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2716535.01824</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3172729.03</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1343.19457</v>
@@ -1589,10 +1575,10 @@
         <v>3454.99499</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3617.91908</v>
+        <v>3618.35608</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4141.256780000001</v>
+        <v>4235.801780000001</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3855.99597</v>
@@ -1604,34 +1590,39 @@
         <v>3990.20196</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6350.222640000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6350.22264</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5588.01</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>479496.2399700001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>617533.14904</v>
+        <v>617533.1490399999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>755993.1030400001</v>
+        <v>755993.10304</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>858498.76485</v>
+        <v>859042.45022</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>987688.9063499999</v>
+        <v>988124.3064100001</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>1109449.80259</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1166153.71671</v>
+        <v>1177227.98899</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>1261334.18589</v>
@@ -1640,94 +1631,109 @@
         <v>1406607.00702</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1643382.47535</v>
+        <v>1643446.89831</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1838134.56208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1848950.29149</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2222854.515</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>197096.11544</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>250069.50068</v>
+        <v>250072.03986</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>289793.51891</v>
+        <v>289825.22587</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>352234.74522</v>
+        <v>352717.32939</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>406684.9966900001</v>
+        <v>407266.1333400001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>437799.59565</v>
+        <v>439090.45985</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>446429.68654</v>
+        <v>459210.23086</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>520868.69223</v>
+        <v>520899.12155</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>616194.31403</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>713344.7299500001</v>
+        <v>715259.7565</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>847936.7459200001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>861234.5041099999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>944286.505</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>580479.5168</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>631103.94629</v>
+        <v>631043.3389</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>311519.20113</v>
+        <v>311494.91112</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>468937.34806</v>
+        <v>469048.80936</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>416656.2682</v>
+        <v>416741.87077</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>637458.1151599999</v>
+        <v>634674.7696900001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>566027.37525</v>
+        <v>559231.90196</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1493676.85039</v>
+        <v>1493676.9782</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2298007.26211</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>910457.1211600001</v>
+        <v>908770.9619499999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2250614.0794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2277396.06122</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>822264.8370000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>156247.82028</v>
@@ -1739,34 +1745,39 @@
         <v>184071.87662</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>228618.6181</v>
+        <v>228731.56657</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>198592.26768</v>
+        <v>198752.47887</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>366002.64347</v>
+        <v>367064.89367</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>347198.35236</v>
+        <v>349169.52632</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>380816.95433</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>569954.1638699999</v>
+        <v>569954.16387</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1677218.32519</v>
+        <v>1691325.83618</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>694120.3537699999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>772093.28264</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>982069.367</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>6845.50235</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>13459.09701</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2086.367</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1835,16 +1851,21 @@
         <v>1246.29211</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>14079.46578</v>
+        <v>25879.46578</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>161.36823</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>25012.8014</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2489.355</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>16299.4922</v>
@@ -1856,16 +1877,16 @@
         <v>14285.15727</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>18828.5684</v>
+        <v>18861.17969</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>18409.0596</v>
+        <v>18495.91204</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>28207.79333</v>
+        <v>28235.70028</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>31201.96199</v>
+        <v>31277.79457</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>46055.43079999999</v>
@@ -1874,16 +1895,21 @@
         <v>104252.95335</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>129002.29881</v>
+        <v>129491.04738</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>122126.50573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>123565.17717</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>106575.747</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>337.47695</v>
@@ -1904,25 +1930,30 @@
         <v>180.25908</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1052.86728</v>
+        <v>1072.53363</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>900.7413399999999</v>
+        <v>900.74134</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>976.31894</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>5067.505210000001</v>
+        <v>5067.50521</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>883.19931</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1575.437</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5084.35499</v>
@@ -1934,19 +1965,19 @@
         <v>6154.63692</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>5061.44479</v>
+        <v>5062.57371</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>10306.26787</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8576.02362</v>
+        <v>8576.023620000002</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>11306.48733</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4012.23364</v>
+        <v>4012.233639999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3237.74556</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>4080.41441</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6163.685</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>227.02212</v>
@@ -1973,10 +2009,10 @@
         <v>8120.340959999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>15045.2544</v>
+        <v>15123.2111</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>19077.35202</v>
+        <v>19084.34508</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>25091.92174</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>15501.27806</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>21386.361</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>98623.50862000001</v>
@@ -2012,34 +2053,39 @@
         <v>110464.7096</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>135902.00919</v>
+        <v>135903.26075</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>103860.33683</v>
+        <v>103926.70252</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>255774.36331</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>235608.42425</v>
+        <v>235911.21498</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>226985.80714</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>338890.1049500001</v>
+        <v>338890.1049499999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1289417.90812</v>
+        <v>1290931.46155</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>383224.09757</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>416866.6123600001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>682295.458</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2943.45106</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>20071.71162</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>3806.294</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>25887.01199</v>
@@ -2129,16 +2185,16 @@
         <v>33210.30479</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>43805.76797999999</v>
+        <v>43805.76798</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>37004.28012999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>42947.62538</v>
+        <v>43981.96863</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>54756.52142999999</v>
+        <v>56329.40573</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>77569.63026999999</v>
@@ -2147,16 +2203,21 @@
         <v>93599.8256</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>212067.71195</v>
+        <v>212372.92094</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>134612.68183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>152652.9913</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>155690.663</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>143093.90522</v>
@@ -2168,34 +2229,39 @@
         <v>233328.94588</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>149094.24447</v>
+        <v>149196.22691</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>332247.65297</v>
+        <v>332248.31504</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>406373.26258</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>494576.6817200001</v>
+        <v>496305.5956</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>484130.43052</v>
+        <v>484130.4305200001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>638158.32836</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2029372.68657</v>
+        <v>2032324.25616</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>705533.2495499999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>772504.82238</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1145637.904</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>263.78215</v>
@@ -2216,25 +2282,30 @@
         <v>3282.8586</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2224.78766</v>
+        <v>2224.932659999999</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1595.26385</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5890.13585</v>
+        <v>5890.135850000001</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>10144.62226</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>8282.111199999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8282.1212</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6718.623</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>34545.32773</v>
@@ -2246,7 +2317,7 @@
         <v>14507.41247</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>24741.22834</v>
+        <v>24841.05703</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>38547.98483</v>
@@ -2255,13 +2326,13 @@
         <v>23573.26639</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30286.6164</v>
+        <v>31730.91375</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>40072.95944999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>40911.61902</v>
+        <v>40911.61902000001</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>31779.98654</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>66177.57734</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>74526.489</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.96366</v>
@@ -2308,32 +2384,37 @@
       <c r="M39" s="48" t="n">
         <v>26007.37491</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>500.499</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>93042.51636999998</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>81663.78651999999</v>
+        <v>81663.78652000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>184141.52204</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>76373.15766000001</v>
+        <v>76375.31140999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>226899.56872</v>
+        <v>226900.23079</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>281249.43944</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>411311.53695</v>
+        <v>411595.45994</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>371854.66078</v>
@@ -2342,16 +2423,21 @@
         <v>538626.42651</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1811131.53202</v>
+        <v>1814082.11356</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>489914.58718</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>556875.2559300001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>973182.721</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1533.38318</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>11478.80516</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>5078.3</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>13706.93213</v>
@@ -2450,25 +2546,30 @@
         <v>39226.5804</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>46968.50307</v>
+        <v>46969.05160999999</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>64430.58233</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>42442.75583000001</v>
+        <v>42442.75582999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>159608.46226</v>
+        <v>159609.45031</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>103672.79376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>103683.68784</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>85631.272</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>117344.58647</v>
@@ -2480,73 +2581,83 @@
         <v>222515.66867</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>242041.35724</v>
+        <v>242060.76843</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>354394.03017</v>
+        <v>354526.84603</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>386524.79315</v>
+        <v>386526.70792</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>517766.2537000001</v>
+        <v>519412.70062</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>542527.71754</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>593488.31018</v>
+        <v>593488.3101799999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>837234.05638</v>
+        <v>837911.8291</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>791721.67425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>818919.0744399999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>706040.647</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>100177.23971</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>86613.39175999998</v>
+        <v>86613.39176</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>170889.38346</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>190917.74532</v>
+        <v>190937.15651</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>271274.1720499999</v>
+        <v>271406.98791</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>319727.02829</v>
+        <v>319728.94306</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>425356.44187</v>
+        <v>427002.8887899999</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>450788.39808</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>489211.6866399999</v>
+        <v>489211.68664</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>757136.5761500001</v>
+        <v>757814.34887</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>730995.96334</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>747838.2305900001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>618974.259</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>17167.34676</v>
@@ -2576,76 +2687,86 @@
         <v>104276.62354</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>80097.48022999999</v>
+        <v>80097.48023</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>60725.71090999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>71080.84385</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>87066.38800000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>476288.84539</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>543053.77966</v>
+        <v>542993.17227</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>39746.4632</v>
+        <v>39722.17318999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>306420.36445</v>
+        <v>306523.38059</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-71393.14726000001</v>
+        <v>-71280.81143</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>210562.7029</v>
+        <v>208839.69286</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-99117.20781000001</v>
+        <v>-107316.86794</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>847835.65666</v>
+        <v>847835.7844700001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1636314.78744</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-278931.2966</v>
+        <v>-270139.28713</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1447479.50937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1458065.44704</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-47344.347</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>40855.3111</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>38473.512</v>
+        <v>38473.51200000001</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>66614.18081999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>48648.07896000001</v>
+        <v>48712.30872</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>67757.10725999999</v>
+        <v>67786.36195000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>148983.57012</v>
+        <v>149091.805</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>130116.2957</v>
+        <v>130189.32947</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>196539.6201</v>
@@ -2654,16 +2775,21 @@
         <v>285830.55208</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>206717.26632</v>
+        <v>212703.03895</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>216024.38745</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>216232.24037</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1227547.176</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>128.20018</v>
@@ -2672,7 +2798,7 @@
         <v>216.27525</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>506.03619</v>
+        <v>506.0361899999999</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>262.22395</v>
@@ -2681,7 +2807,7 @@
         <v>1608.8553</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4625.54588</v>
+        <v>4625.545879999999</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1766.54594</v>
@@ -2693,55 +2819,65 @@
         <v>1105.9558</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8386.79948</v>
+        <v>8770.132820000001</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>15291.70795</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3960.757</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>40727.11092</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>38257.23675000001</v>
+        <v>38257.23675</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>66108.14463</v>
+        <v>66108.14463000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>48385.85501000001</v>
+        <v>48450.08476999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>66148.25195999999</v>
+        <v>66177.50665</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>144358.02424</v>
+        <v>144466.25912</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>128349.74976</v>
+        <v>128422.78353</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>196174.35479</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>284724.59628</v>
+        <v>284724.5962800001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>198330.46684</v>
+        <v>203932.90613</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>200732.6795</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>200940.53242</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1223586.419</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>56194.23618</v>
@@ -2756,31 +2892,36 @@
         <v>60935.33394</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>120963.03231</v>
+        <v>121028.52816</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>126374.13171</v>
+        <v>126600.86002</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>146333.05491</v>
+        <v>147924.42968</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>281911.37868</v>
+        <v>281911.37136</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>161210.17996</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>214856.62404</v>
+        <v>215745.94247</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>339570.0304099999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>339959.63021</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>251196.057</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>10363.54696</v>
@@ -2795,7 +2936,7 @@
         <v>13541.40516</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>58599.99476000001</v>
+        <v>58599.99476</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>33054.88305</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>41831.86833</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>34457.835</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4903.24656</v>
@@ -2834,13 +2980,13 @@
         <v>9044.388050000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8146.203280000001</v>
+        <v>8146.203280000002</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8858.453589999999</v>
+        <v>8859.187840000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11892.97253</v>
+        <v>11893.84743</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>11719.42108</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>14082.76325</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>29062.307</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>40927.44266</v>
+        <v>40927.44265999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>36645.11883</v>
@@ -2870,73 +3021,83 @@
         <v>137758.65969</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>38349.54072999999</v>
+        <v>38349.54073</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>54216.83427000001</v>
+        <v>54282.33012000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>84460.79506999999</v>
+        <v>84686.78913</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>108855.29161</v>
+        <v>110445.79148</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>241493.64789</v>
+        <v>241493.64057</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>106085.70147</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>183583.48882</v>
+        <v>184472.80725</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>283655.39883</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>284044.99863</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>187675.915</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>460949.92031</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>528977.78717</v>
+        <v>528917.17978</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-63683.55094</v>
+        <v>-63707.84094999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>294133.10947</v>
+        <v>294300.3553699999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-124599.07231</v>
+        <v>-124522.97764</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>233172.14131</v>
+        <v>231330.63784</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-115333.96702</v>
+        <v>-125051.96815</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>762463.8980800001</v>
+        <v>762464.03321</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1760935.15956</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-287070.65432</v>
+        <v>-273182.19065</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1323933.86641</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1334338.0572</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>929006.772</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>67928.03164999999</v>
@@ -2945,73 +3106,81 @@
         <v>104013.3286</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>46907.06890999999</v>
+        <v>46907.06891</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>83357.12840999999</v>
+        <v>83400.82249000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>55878.33895999999</v>
+        <v>55914.76032000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>80383.07773999998</v>
+        <v>80388.82669</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>64721.82126</v>
+        <v>64783.31015</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>142117.39545</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>305838.4471400001</v>
+        <v>305838.44714</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>119218.64074</v>
+        <v>119372.93768</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>254178.03736</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>258588.67956</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>116608.852</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>393021.8886599999</v>
+        <v>393021.8886600001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>424964.45857</v>
+        <v>424903.85118</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-110590.61985</v>
+        <v>-110614.90986</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>210775.98106</v>
+        <v>210899.53288</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-180477.41127</v>
+        <v>-180437.73796</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>152789.06357</v>
+        <v>150941.81115</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-180055.78828</v>
+        <v>-189835.2783</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>620346.50263</v>
+        <v>620346.6377600001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1455096.71242</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-406289.29506</v>
+        <v>-392555.12833</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1069755.82905</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1075749.37764</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>812397.92</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>475</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>747</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>671</v>
+        <v>782</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>823</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>